--- a/default_store_list.xlsx
+++ b/default_store_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbrown/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAF0FDD-78A7-5E4F-897E-E12C4571EE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC6AB11D-E4A5-784B-88B4-B90EF0FF4A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16540" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="455">
   <si>
     <t>Store Number</t>
   </si>
@@ -52,6 +52,321 @@
     <t>Swim</t>
   </si>
   <si>
+    <t>Premiere</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
     <t>HQ store</t>
   </si>
   <si>
@@ -355,18 +670,12 @@
     <t>Tulsa Premium Outlets</t>
   </si>
   <si>
-    <t>UTC San Diego</t>
-  </si>
-  <si>
     <t>Arrowhead</t>
   </si>
   <si>
     <t>Westfield Culver City</t>
   </si>
   <si>
-    <t>NorthPark</t>
-  </si>
-  <si>
     <t>West County</t>
   </si>
   <si>
@@ -673,18 +982,12 @@
     <t>801 East Outlet Dr.</t>
   </si>
   <si>
-    <t xml:space="preserve">4525 LaJolla Drive </t>
-  </si>
-  <si>
     <t>7700 W. Arrowhead Towne Center</t>
   </si>
   <si>
     <t xml:space="preserve">6000 Sepulveda Blvd. </t>
   </si>
   <si>
-    <t>8687 N. Central Expressway</t>
-  </si>
-  <si>
     <t>42 W. County Center Dr</t>
   </si>
   <si>
@@ -967,16 +1270,10 @@
     <t>Jenks</t>
   </si>
   <si>
-    <t>San Diego</t>
-  </si>
-  <si>
     <t>Glendale</t>
   </si>
   <si>
     <t>Culver City</t>
-  </si>
-  <si>
-    <t>Dallas</t>
   </si>
   <si>
     <t>St Louis</t>
@@ -1455,18 +1752,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J107"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93:XFD93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="28" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1497,2700 +1791,2672 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="C2">
         <v>10125</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>219</v>
       </c>
       <c r="E2" t="s">
-        <v>222</v>
+        <v>323</v>
       </c>
       <c r="F2" t="s">
-        <v>320</v>
+        <v>419</v>
       </c>
       <c r="G2">
         <v>90245</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>11</v>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="C3">
         <v>14911</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="E3" t="s">
-        <v>223</v>
+        <v>324</v>
       </c>
       <c r="F3" t="s">
-        <v>321</v>
+        <v>420</v>
       </c>
       <c r="G3">
         <v>19702</v>
       </c>
       <c r="H3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>12</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="C4">
         <v>10111</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="E4" t="s">
-        <v>224</v>
+        <v>325</v>
       </c>
       <c r="F4" t="s">
-        <v>320</v>
+        <v>419</v>
       </c>
       <c r="G4">
         <v>91367</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>13</v>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="C5">
         <v>15411</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="E5" t="s">
-        <v>225</v>
+        <v>326</v>
       </c>
       <c r="F5" t="s">
-        <v>322</v>
+        <v>421</v>
       </c>
       <c r="G5">
         <v>21044</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>14</v>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="C6">
         <v>14811</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="E6" t="s">
-        <v>226</v>
+        <v>327</v>
       </c>
       <c r="F6" t="s">
-        <v>323</v>
+        <v>422</v>
       </c>
       <c r="G6">
         <v>8807</v>
       </c>
       <c r="H6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>15</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="C7">
         <v>13511</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="E7" t="s">
-        <v>227</v>
+        <v>328</v>
       </c>
       <c r="F7" t="s">
-        <v>324</v>
+        <v>423</v>
       </c>
       <c r="G7">
         <v>45236</v>
       </c>
       <c r="H7" t="s">
-        <v>355</v>
+        <v>454</v>
       </c>
       <c r="I7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>16</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="C8">
         <v>12311</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="E8" t="s">
-        <v>228</v>
+        <v>329</v>
       </c>
       <c r="F8" t="s">
-        <v>325</v>
+        <v>424</v>
       </c>
       <c r="G8">
         <v>63117</v>
       </c>
       <c r="H8" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>17</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="C9">
         <v>12111</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="E9" t="s">
-        <v>229</v>
+        <v>330</v>
       </c>
       <c r="F9" t="s">
-        <v>326</v>
+        <v>425</v>
       </c>
       <c r="G9">
         <v>55425</v>
       </c>
       <c r="H9" t="s">
-        <v>355</v>
+        <v>454</v>
       </c>
       <c r="I9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>18</v>
+        <v>454</v>
+      </c>
+      <c r="K9" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="C10">
         <v>10113</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="E10" t="s">
-        <v>230</v>
+        <v>331</v>
       </c>
       <c r="F10" t="s">
-        <v>320</v>
+        <v>419</v>
       </c>
       <c r="G10">
         <v>92691</v>
       </c>
       <c r="H10" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>19</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="C11">
         <v>10511</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="E11" t="s">
-        <v>231</v>
+        <v>332</v>
       </c>
       <c r="F11" t="s">
-        <v>327</v>
+        <v>426</v>
       </c>
       <c r="G11">
         <v>89135</v>
       </c>
       <c r="H11" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>20</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="C12">
         <v>10112</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="E12" t="s">
-        <v>232</v>
+        <v>333</v>
       </c>
       <c r="F12" t="s">
-        <v>320</v>
+        <v>419</v>
       </c>
       <c r="G12">
         <v>90503</v>
       </c>
       <c r="H12" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>21</v>
+        <v>454</v>
+      </c>
+      <c r="K12" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="C13">
         <v>15511</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="E13" t="s">
-        <v>233</v>
+        <v>334</v>
       </c>
       <c r="F13" t="s">
-        <v>328</v>
+        <v>427</v>
       </c>
       <c r="G13">
         <v>28211</v>
       </c>
       <c r="H13" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>22</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="C14">
         <v>10611</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="E14" t="s">
-        <v>234</v>
+        <v>335</v>
       </c>
       <c r="F14" t="s">
-        <v>329</v>
+        <v>428</v>
       </c>
       <c r="G14">
         <v>84101</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>23</v>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="C15">
         <v>12911</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="E15" t="s">
-        <v>235</v>
+        <v>336</v>
       </c>
       <c r="F15" t="s">
-        <v>330</v>
+        <v>429</v>
       </c>
       <c r="G15">
         <v>60523</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>24</v>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="C16">
         <v>12711</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="E16" t="s">
-        <v>236</v>
+        <v>337</v>
       </c>
       <c r="F16" t="s">
-        <v>331</v>
+        <v>430</v>
       </c>
       <c r="G16">
         <v>96815</v>
       </c>
       <c r="H16" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>25</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="C17">
         <v>11311</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="E17" t="s">
-        <v>237</v>
+        <v>338</v>
       </c>
       <c r="F17" t="s">
-        <v>332</v>
+        <v>431</v>
       </c>
       <c r="G17">
         <v>80206</v>
       </c>
       <c r="H17" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>26</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="C18">
         <v>15712</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="E18" t="s">
-        <v>238</v>
+        <v>339</v>
       </c>
       <c r="F18" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="G18">
         <v>34243</v>
       </c>
       <c r="H18" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>27</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="C19">
         <v>12912</v>
       </c>
       <c r="D19" t="s">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="E19" t="s">
-        <v>239</v>
+        <v>340</v>
       </c>
       <c r="F19" t="s">
-        <v>330</v>
+        <v>429</v>
       </c>
       <c r="G19">
         <v>60077</v>
       </c>
       <c r="H19" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>28</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="C20">
         <v>15711</v>
       </c>
       <c r="D20" t="s">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="E20" t="s">
-        <v>240</v>
+        <v>341</v>
       </c>
       <c r="F20" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="G20">
         <v>33607</v>
       </c>
       <c r="H20" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>29</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="C21">
         <v>11911</v>
       </c>
       <c r="D21" t="s">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="E21" t="s">
-        <v>241</v>
+        <v>342</v>
       </c>
       <c r="F21" t="s">
-        <v>334</v>
+        <v>433</v>
       </c>
       <c r="G21">
         <v>75024</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>30</v>
+      <c r="K21" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="C22">
         <v>13611</v>
       </c>
       <c r="D22" t="s">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="E22" t="s">
-        <v>242</v>
+        <v>343</v>
       </c>
       <c r="F22" t="s">
-        <v>335</v>
+        <v>434</v>
       </c>
       <c r="G22">
         <v>40517</v>
       </c>
       <c r="H22" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>31</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="C23">
         <v>13411</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="E23" t="s">
-        <v>243</v>
+        <v>344</v>
       </c>
       <c r="F23" t="s">
-        <v>336</v>
+        <v>435</v>
       </c>
       <c r="G23">
         <v>46240</v>
       </c>
       <c r="H23" t="s">
-        <v>355</v>
+        <v>454</v>
       </c>
       <c r="I23" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>32</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="C24">
         <v>12913</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>241</v>
       </c>
       <c r="E24" t="s">
-        <v>244</v>
+        <v>345</v>
       </c>
       <c r="F24" t="s">
-        <v>330</v>
+        <v>429</v>
       </c>
       <c r="G24">
         <v>60173</v>
       </c>
       <c r="H24" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>33</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="C25">
         <v>15713</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="E25" t="s">
-        <v>245</v>
+        <v>346</v>
       </c>
       <c r="F25" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="G25">
         <v>33431</v>
       </c>
       <c r="H25" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>34</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="C26">
         <v>14812</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>243</v>
       </c>
       <c r="E26" t="s">
-        <v>246</v>
+        <v>347</v>
       </c>
       <c r="F26" t="s">
-        <v>323</v>
+        <v>422</v>
       </c>
       <c r="G26">
         <v>7652</v>
       </c>
       <c r="H26" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>35</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="C27">
         <v>10311</v>
       </c>
       <c r="D27" t="s">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="E27" t="s">
-        <v>247</v>
+        <v>348</v>
       </c>
       <c r="F27" t="s">
-        <v>337</v>
+        <v>436</v>
       </c>
       <c r="G27">
         <v>98004</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>36</v>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="C28">
         <v>11912</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
+        <v>245</v>
       </c>
       <c r="E28" t="s">
-        <v>248</v>
+        <v>349</v>
       </c>
       <c r="F28" t="s">
-        <v>334</v>
+        <v>433</v>
       </c>
       <c r="G28">
         <v>78758</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>37</v>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="C29">
         <v>15714</v>
       </c>
       <c r="D29" t="s">
-        <v>143</v>
+        <v>246</v>
       </c>
       <c r="E29" t="s">
-        <v>249</v>
+        <v>350</v>
       </c>
       <c r="F29" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="G29">
         <v>32246</v>
       </c>
       <c r="H29" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>38</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="C30">
         <v>10114</v>
       </c>
       <c r="D30" t="s">
-        <v>144</v>
+        <v>247</v>
       </c>
       <c r="E30" t="s">
-        <v>250</v>
+        <v>351</v>
       </c>
       <c r="F30" t="s">
-        <v>320</v>
+        <v>419</v>
       </c>
       <c r="G30">
         <v>94588</v>
       </c>
       <c r="H30" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="C31">
         <v>14512</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>248</v>
       </c>
       <c r="E31" t="s">
-        <v>251</v>
+        <v>352</v>
       </c>
       <c r="F31" t="s">
-        <v>338</v>
+        <v>437</v>
       </c>
       <c r="G31">
         <v>11530</v>
       </c>
       <c r="H31" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="C32">
         <v>14711</v>
       </c>
       <c r="D32" t="s">
-        <v>146</v>
+        <v>249</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="F32" t="s">
-        <v>339</v>
+        <v>438</v>
       </c>
       <c r="G32">
         <v>19406</v>
       </c>
       <c r="H32" t="s">
-        <v>355</v>
+        <v>454</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" t="s">
         <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="C33">
         <v>14211</v>
       </c>
       <c r="D33" t="s">
-        <v>147</v>
+        <v>250</v>
       </c>
       <c r="E33" t="s">
-        <v>252</v>
+        <v>353</v>
       </c>
       <c r="F33" t="s">
-        <v>340</v>
+        <v>439</v>
       </c>
       <c r="G33">
         <v>1760</v>
       </c>
       <c r="H33" t="s">
-        <v>355</v>
+        <v>454</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A34" t="s">
         <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="C34">
         <v>13111</v>
       </c>
       <c r="D34" t="s">
-        <v>148</v>
+        <v>251</v>
       </c>
       <c r="E34" t="s">
-        <v>253</v>
+        <v>354</v>
       </c>
       <c r="F34" t="s">
-        <v>341</v>
+        <v>440</v>
       </c>
       <c r="G34">
         <v>37215</v>
       </c>
       <c r="H34" t="s">
-        <v>355</v>
+        <v>454</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>45</v>
+      <c r="A35" t="s">
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="C35">
         <v>10116</v>
       </c>
       <c r="D35" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="E35" t="s">
-        <v>254</v>
+        <v>355</v>
       </c>
       <c r="F35" t="s">
-        <v>320</v>
+        <v>419</v>
       </c>
       <c r="G35">
         <v>92108</v>
       </c>
       <c r="H35" t="s">
-        <v>355</v>
+        <v>454</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>46</v>
+      <c r="A36" t="s">
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="C36">
         <v>15716</v>
       </c>
       <c r="D36" t="s">
-        <v>150</v>
+        <v>253</v>
       </c>
       <c r="E36" t="s">
-        <v>255</v>
+        <v>356</v>
       </c>
       <c r="F36" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="G36">
         <v>32839</v>
       </c>
       <c r="H36" t="s">
-        <v>355</v>
+        <v>454</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>47</v>
+      <c r="A37" t="s">
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="C37">
         <v>10117</v>
       </c>
       <c r="D37" t="s">
-        <v>151</v>
+        <v>254</v>
       </c>
       <c r="E37" t="s">
-        <v>256</v>
+        <v>357</v>
       </c>
       <c r="F37" t="s">
-        <v>320</v>
+        <v>419</v>
       </c>
       <c r="G37">
         <v>92821</v>
       </c>
       <c r="H37" t="s">
-        <v>355</v>
+        <v>454</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>48</v>
+      <c r="A38" t="s">
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="C38">
         <v>14813</v>
       </c>
       <c r="D38" t="s">
-        <v>152</v>
+        <v>255</v>
       </c>
       <c r="E38" t="s">
-        <v>257</v>
+        <v>358</v>
       </c>
       <c r="F38" t="s">
-        <v>323</v>
+        <v>422</v>
       </c>
       <c r="G38">
         <v>7073</v>
       </c>
       <c r="H38" t="s">
-        <v>355</v>
+        <v>454</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>49</v>
+      <c r="A39" t="s">
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="C39">
         <v>11913</v>
       </c>
       <c r="D39" t="s">
-        <v>153</v>
+        <v>256</v>
       </c>
       <c r="E39" t="s">
-        <v>258</v>
+        <v>359</v>
       </c>
       <c r="F39" t="s">
-        <v>334</v>
+        <v>433</v>
       </c>
       <c r="G39">
         <v>77056</v>
       </c>
       <c r="H39" t="s">
-        <v>355</v>
+        <v>454</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>51</v>
+      <c r="A40" t="s">
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="C40">
         <v>13711</v>
       </c>
       <c r="D40" t="s">
-        <v>154</v>
+        <v>257</v>
       </c>
       <c r="E40" t="s">
-        <v>259</v>
+        <v>360</v>
       </c>
       <c r="F40" t="s">
-        <v>342</v>
+        <v>441</v>
       </c>
       <c r="G40">
         <v>30346</v>
       </c>
       <c r="H40" t="s">
-        <v>355</v>
+        <v>454</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>52</v>
+      <c r="A41" t="s">
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="C41">
         <v>14411</v>
       </c>
       <c r="D41" t="s">
-        <v>155</v>
+        <v>258</v>
       </c>
       <c r="E41" t="s">
-        <v>260</v>
+        <v>361</v>
       </c>
       <c r="F41" t="s">
-        <v>343</v>
+        <v>442</v>
       </c>
       <c r="G41">
         <v>6110</v>
       </c>
       <c r="H41" t="s">
-        <v>355</v>
+        <v>454</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>53</v>
+      <c r="A42" t="s">
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="C42">
         <v>13311</v>
       </c>
       <c r="D42" t="s">
-        <v>156</v>
+        <v>259</v>
       </c>
       <c r="E42" t="s">
-        <v>261</v>
+        <v>362</v>
       </c>
       <c r="F42" t="s">
-        <v>344</v>
+        <v>443</v>
       </c>
       <c r="G42">
         <v>48377</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>54</v>
+      <c r="A43" t="s">
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c r="C43">
         <v>14712</v>
       </c>
       <c r="D43" t="s">
-        <v>157</v>
+        <v>260</v>
       </c>
       <c r="E43" t="s">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="F43" t="s">
-        <v>339</v>
+        <v>438</v>
       </c>
       <c r="G43">
         <v>15237</v>
       </c>
       <c r="H43" t="s">
-        <v>355</v>
+        <v>454</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>55</v>
+      <c r="A44" t="s">
+        <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="C44">
         <v>13513</v>
       </c>
       <c r="D44" t="s">
-        <v>158</v>
+        <v>261</v>
       </c>
       <c r="E44" t="s">
-        <v>263</v>
+        <v>364</v>
       </c>
       <c r="F44" t="s">
-        <v>324</v>
+        <v>423</v>
       </c>
       <c r="G44">
         <v>44122</v>
       </c>
       <c r="H44" t="s">
-        <v>355</v>
+        <v>454</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>56</v>
+      <c r="A45" t="s">
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="C45">
         <v>10118</v>
       </c>
       <c r="D45" t="s">
-        <v>159</v>
+        <v>262</v>
       </c>
       <c r="E45" t="s">
-        <v>264</v>
+        <v>365</v>
       </c>
       <c r="F45" t="s">
-        <v>320</v>
+        <v>419</v>
       </c>
       <c r="G45">
         <v>95050</v>
       </c>
       <c r="H45" t="s">
-        <v>355</v>
+        <v>454</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>57</v>
+      <c r="A46" t="s">
+        <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>159</v>
       </c>
       <c r="C46">
         <v>11112</v>
       </c>
       <c r="D46" t="s">
-        <v>160</v>
+        <v>263</v>
       </c>
       <c r="E46" t="s">
-        <v>265</v>
+        <v>366</v>
       </c>
       <c r="F46" t="s">
-        <v>345</v>
+        <v>444</v>
       </c>
       <c r="G46">
         <v>85251</v>
       </c>
       <c r="H46" t="s">
-        <v>355</v>
+        <v>454</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>58</v>
+      <c r="A47" t="s">
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="C47">
         <v>14713</v>
       </c>
       <c r="D47" t="s">
-        <v>161</v>
+        <v>264</v>
       </c>
       <c r="E47" t="s">
-        <v>266</v>
+        <v>367</v>
       </c>
       <c r="F47" t="s">
-        <v>339</v>
+        <v>438</v>
       </c>
       <c r="G47">
         <v>15234</v>
       </c>
       <c r="H47" t="s">
-        <v>355</v>
+        <v>454</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>59</v>
+      <c r="A48" t="s">
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="C48">
         <v>15717</v>
       </c>
       <c r="D48" t="s">
-        <v>162</v>
+        <v>265</v>
       </c>
       <c r="E48" t="s">
-        <v>267</v>
+        <v>368</v>
       </c>
       <c r="F48" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="G48">
         <v>33156</v>
       </c>
       <c r="H48" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>60</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="C49">
         <v>11914</v>
       </c>
       <c r="D49" t="s">
-        <v>163</v>
+        <v>266</v>
       </c>
       <c r="E49" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="F49" t="s">
-        <v>334</v>
+        <v>433</v>
       </c>
       <c r="G49">
         <v>76092</v>
       </c>
       <c r="H49" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>61</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="C50">
         <v>14212</v>
       </c>
       <c r="D50" t="s">
-        <v>164</v>
+        <v>267</v>
       </c>
       <c r="E50" t="s">
-        <v>268</v>
+        <v>369</v>
       </c>
       <c r="F50" t="s">
-        <v>340</v>
+        <v>439</v>
       </c>
       <c r="G50">
         <v>1803</v>
       </c>
       <c r="H50" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>62</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="C51">
         <v>10123</v>
       </c>
       <c r="D51" t="s">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c r="E51" t="s">
-        <v>269</v>
+        <v>370</v>
       </c>
       <c r="F51" t="s">
-        <v>320</v>
+        <v>419</v>
       </c>
       <c r="G51">
         <v>92618</v>
       </c>
       <c r="H51" t="s">
-        <v>355</v>
+        <v>454</v>
       </c>
       <c r="I51" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>63</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="C52">
         <v>15801</v>
       </c>
       <c r="D52" t="s">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="E52" t="s">
-        <v>270</v>
+        <v>371</v>
       </c>
       <c r="F52" t="s">
-        <v>346</v>
+        <v>445</v>
       </c>
       <c r="G52">
         <v>35243</v>
       </c>
       <c r="H52" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>64</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="C53">
         <v>13312</v>
       </c>
       <c r="D53" t="s">
-        <v>167</v>
+        <v>270</v>
       </c>
       <c r="E53" t="s">
-        <v>271</v>
+        <v>372</v>
       </c>
       <c r="F53" t="s">
-        <v>344</v>
+        <v>443</v>
       </c>
       <c r="G53">
         <v>48084</v>
       </c>
       <c r="H53" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>65</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="C54">
         <v>11916</v>
       </c>
       <c r="D54" t="s">
-        <v>168</v>
+        <v>271</v>
       </c>
       <c r="E54" t="s">
-        <v>272</v>
+        <v>373</v>
       </c>
       <c r="F54" t="s">
-        <v>334</v>
+        <v>433</v>
       </c>
       <c r="G54">
         <v>77380</v>
       </c>
       <c r="H54" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>66</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="C55">
         <v>11312</v>
       </c>
       <c r="D55" t="s">
-        <v>169</v>
+        <v>272</v>
       </c>
       <c r="E55" t="s">
-        <v>273</v>
+        <v>374</v>
       </c>
       <c r="F55" t="s">
-        <v>332</v>
+        <v>431</v>
       </c>
       <c r="G55">
         <v>80124</v>
       </c>
       <c r="H55" t="s">
-        <v>355</v>
+        <v>454</v>
       </c>
       <c r="I55" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>67</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="C56">
         <v>10126</v>
       </c>
       <c r="D56" t="s">
-        <v>170</v>
+        <v>273</v>
       </c>
       <c r="E56" t="s">
-        <v>274</v>
+        <v>375</v>
       </c>
       <c r="F56" t="s">
-        <v>320</v>
+        <v>419</v>
       </c>
       <c r="G56">
         <v>92660</v>
       </c>
       <c r="I56" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>68</v>
+        <v>454</v>
+      </c>
+      <c r="K56" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="C57">
         <v>15211</v>
       </c>
       <c r="D57" t="s">
-        <v>171</v>
+        <v>274</v>
       </c>
       <c r="E57" t="s">
-        <v>275</v>
+        <v>376</v>
       </c>
       <c r="F57" t="s">
-        <v>347</v>
+        <v>446</v>
       </c>
       <c r="G57">
         <v>23233</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>69</v>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>171</v>
       </c>
       <c r="C58">
         <v>15512</v>
       </c>
       <c r="D58" t="s">
-        <v>172</v>
+        <v>275</v>
       </c>
       <c r="E58" t="s">
-        <v>276</v>
+        <v>377</v>
       </c>
       <c r="F58" t="s">
-        <v>328</v>
+        <v>427</v>
       </c>
       <c r="G58">
         <v>27713</v>
       </c>
       <c r="H58" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>70</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>172</v>
       </c>
       <c r="C59">
         <v>11711</v>
       </c>
       <c r="D59" t="s">
-        <v>173</v>
+        <v>276</v>
       </c>
       <c r="E59" t="s">
-        <v>277</v>
+        <v>378</v>
       </c>
       <c r="F59" t="s">
-        <v>348</v>
+        <v>447</v>
       </c>
       <c r="G59">
         <v>66209</v>
       </c>
       <c r="H59" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>71</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c r="C60">
         <v>15412</v>
       </c>
       <c r="D60" t="s">
-        <v>174</v>
+        <v>277</v>
       </c>
       <c r="E60" t="s">
-        <v>278</v>
+        <v>379</v>
       </c>
       <c r="F60" t="s">
-        <v>322</v>
+        <v>421</v>
       </c>
       <c r="G60">
         <v>20817</v>
       </c>
       <c r="H60" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>72</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>70</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>174</v>
       </c>
       <c r="C61">
         <v>10127</v>
       </c>
       <c r="D61" t="s">
-        <v>175</v>
+        <v>278</v>
       </c>
       <c r="E61" t="s">
-        <v>279</v>
+        <v>380</v>
       </c>
       <c r="F61" t="s">
-        <v>320</v>
+        <v>419</v>
       </c>
       <c r="G61">
         <v>90703</v>
       </c>
       <c r="H61" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>73</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C62">
         <v>10411</v>
       </c>
       <c r="D62" t="s">
-        <v>176</v>
+        <v>279</v>
       </c>
       <c r="E62" t="s">
-        <v>280</v>
+        <v>381</v>
       </c>
       <c r="F62" t="s">
-        <v>349</v>
+        <v>448</v>
       </c>
       <c r="G62">
         <v>97223</v>
       </c>
       <c r="H62" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>74</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>176</v>
       </c>
       <c r="C63">
         <v>15212</v>
       </c>
       <c r="D63" t="s">
-        <v>177</v>
+        <v>280</v>
       </c>
       <c r="E63" t="s">
-        <v>71</v>
+        <v>176</v>
       </c>
       <c r="F63" t="s">
-        <v>347</v>
+        <v>446</v>
       </c>
       <c r="G63">
         <v>22102</v>
       </c>
       <c r="H63" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>75</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="C64">
         <v>11114</v>
       </c>
       <c r="D64" t="s">
-        <v>178</v>
+        <v>281</v>
       </c>
       <c r="E64" t="s">
-        <v>265</v>
+        <v>366</v>
       </c>
       <c r="F64" t="s">
-        <v>345</v>
+        <v>444</v>
       </c>
       <c r="G64">
         <v>85254</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>76</v>
+      <c r="A65" t="s">
+        <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>178</v>
       </c>
       <c r="C65">
         <v>10128</v>
       </c>
       <c r="D65" t="s">
-        <v>179</v>
+        <v>282</v>
       </c>
       <c r="E65" t="s">
-        <v>281</v>
+        <v>382</v>
       </c>
       <c r="F65" t="s">
-        <v>320</v>
+        <v>419</v>
       </c>
       <c r="G65">
         <v>95678</v>
       </c>
       <c r="H65" t="s">
-        <v>355</v>
+        <v>454</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>77</v>
+      <c r="A66" t="s">
+        <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="C66">
         <v>13713</v>
       </c>
       <c r="D66" t="s">
-        <v>180</v>
+        <v>283</v>
       </c>
       <c r="E66" t="s">
-        <v>259</v>
+        <v>360</v>
       </c>
       <c r="F66" t="s">
-        <v>342</v>
+        <v>441</v>
       </c>
       <c r="G66">
         <v>30326</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>78</v>
+      <c r="A67" t="s">
+        <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="C67">
         <v>11918</v>
       </c>
       <c r="D67" t="s">
-        <v>181</v>
+        <v>284</v>
       </c>
       <c r="E67" t="s">
-        <v>282</v>
+        <v>383</v>
       </c>
       <c r="F67" t="s">
-        <v>334</v>
+        <v>433</v>
       </c>
       <c r="G67">
         <v>76107</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>79</v>
+      <c r="A68" t="s">
+        <v>77</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="C68">
         <v>14514</v>
       </c>
       <c r="D68" t="s">
-        <v>182</v>
+        <v>285</v>
       </c>
       <c r="E68" t="s">
-        <v>283</v>
+        <v>384</v>
       </c>
       <c r="F68" t="s">
-        <v>338</v>
+        <v>437</v>
       </c>
       <c r="G68">
         <v>10601</v>
       </c>
       <c r="H68" t="s">
-        <v>355</v>
+        <v>454</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>80</v>
+      <c r="A69" t="s">
+        <v>78</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="C69">
         <v>15720</v>
       </c>
       <c r="D69" t="s">
-        <v>183</v>
+        <v>286</v>
       </c>
       <c r="E69" t="s">
-        <v>284</v>
+        <v>385</v>
       </c>
       <c r="F69" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="G69">
         <v>33410</v>
       </c>
       <c r="H69" t="s">
-        <v>355</v>
+        <v>454</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>81</v>
+      <c r="A70" t="s">
+        <v>79</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="C70">
         <v>15721</v>
       </c>
       <c r="D70" t="s">
-        <v>184</v>
+        <v>287</v>
       </c>
       <c r="E70" t="s">
-        <v>285</v>
+        <v>386</v>
       </c>
       <c r="F70" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="G70">
         <v>32830</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>82</v>
+      <c r="A71" t="s">
+        <v>80</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="C71">
         <v>10130</v>
       </c>
       <c r="D71" t="s">
-        <v>185</v>
+        <v>288</v>
       </c>
       <c r="E71" t="s">
-        <v>286</v>
+        <v>387</v>
       </c>
       <c r="F71" t="s">
-        <v>320</v>
+        <v>419</v>
       </c>
       <c r="G71">
         <v>91739</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>83</v>
+      <c r="A72" t="s">
+        <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="C72">
         <v>11919</v>
       </c>
       <c r="D72" t="s">
-        <v>186</v>
+        <v>289</v>
       </c>
       <c r="E72" t="s">
-        <v>287</v>
+        <v>388</v>
       </c>
       <c r="F72" t="s">
-        <v>334</v>
+        <v>433</v>
       </c>
       <c r="G72">
         <v>78746</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>84</v>
+      <c r="A73" t="s">
+        <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="C73">
         <v>12211</v>
       </c>
       <c r="D73" t="s">
-        <v>187</v>
+        <v>290</v>
       </c>
       <c r="E73" t="s">
-        <v>288</v>
+        <v>389</v>
       </c>
       <c r="F73" t="s">
-        <v>350</v>
+        <v>449</v>
       </c>
       <c r="G73">
         <v>50266</v>
       </c>
       <c r="H73" t="s">
-        <v>355</v>
+        <v>454</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>85</v>
+      <c r="A74" t="s">
+        <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="C74">
         <v>10613</v>
       </c>
       <c r="D74" t="s">
-        <v>188</v>
+        <v>291</v>
       </c>
       <c r="E74" t="s">
-        <v>289</v>
+        <v>390</v>
       </c>
       <c r="F74" t="s">
-        <v>329</v>
+        <v>428</v>
       </c>
       <c r="G74">
         <v>84107</v>
       </c>
       <c r="H74" t="s">
-        <v>355</v>
+        <v>454</v>
       </c>
       <c r="I74" t="s">
-        <v>355</v>
+        <v>454</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>86</v>
+      <c r="A75" t="s">
+        <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c r="C75">
         <v>11920</v>
       </c>
       <c r="D75" t="s">
-        <v>189</v>
+        <v>292</v>
       </c>
       <c r="E75" t="s">
-        <v>290</v>
+        <v>391</v>
       </c>
       <c r="F75" t="s">
-        <v>334</v>
+        <v>433</v>
       </c>
       <c r="G75">
         <v>78256</v>
       </c>
       <c r="H75" t="s">
-        <v>355</v>
+        <v>454</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>87</v>
+      <c r="A76" t="s">
+        <v>85</v>
       </c>
       <c r="B76" t="s">
-        <v>84</v>
+        <v>189</v>
       </c>
       <c r="C76">
         <v>10513</v>
       </c>
       <c r="D76" t="s">
-        <v>190</v>
+        <v>293</v>
       </c>
       <c r="E76" t="s">
-        <v>231</v>
+        <v>332</v>
       </c>
       <c r="F76" t="s">
-        <v>327</v>
+        <v>426</v>
       </c>
       <c r="G76">
         <v>89109</v>
       </c>
       <c r="H76" t="s">
-        <v>355</v>
+        <v>454</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>88</v>
+      <c r="A77" t="s">
+        <v>86</v>
       </c>
       <c r="B77" t="s">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="C77">
         <v>11411</v>
       </c>
       <c r="D77" t="s">
-        <v>191</v>
+        <v>294</v>
       </c>
       <c r="E77" t="s">
-        <v>291</v>
+        <v>392</v>
       </c>
       <c r="F77" t="s">
-        <v>351</v>
+        <v>450</v>
       </c>
       <c r="G77">
         <v>87110</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>89</v>
+      <c r="A78" t="s">
+        <v>87</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
+        <v>191</v>
       </c>
       <c r="C78">
         <v>10131</v>
       </c>
       <c r="D78" t="s">
-        <v>192</v>
+        <v>295</v>
       </c>
       <c r="E78" t="s">
-        <v>86</v>
+        <v>191</v>
       </c>
       <c r="F78" t="s">
-        <v>320</v>
+        <v>419</v>
       </c>
       <c r="G78">
         <v>94925</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>90</v>
+      <c r="A79" t="s">
+        <v>88</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>192</v>
       </c>
       <c r="C79">
         <v>11811</v>
       </c>
       <c r="D79" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="E79" t="s">
-        <v>292</v>
+        <v>393</v>
       </c>
       <c r="F79" t="s">
-        <v>352</v>
+        <v>451</v>
       </c>
       <c r="G79">
         <v>73118</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>91</v>
+      <c r="A80" t="s">
+        <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="C80">
         <v>10132</v>
       </c>
       <c r="D80" t="s">
-        <v>194</v>
+        <v>297</v>
       </c>
       <c r="E80" t="s">
-        <v>293</v>
+        <v>394</v>
       </c>
       <c r="F80" t="s">
-        <v>320</v>
+        <v>419</v>
       </c>
       <c r="G80">
         <v>91007</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>92</v>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>90</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="C81">
         <v>12811</v>
       </c>
       <c r="D81" t="s">
-        <v>195</v>
+        <v>298</v>
       </c>
       <c r="E81" t="s">
-        <v>294</v>
+        <v>395</v>
       </c>
       <c r="F81" t="s">
-        <v>353</v>
+        <v>452</v>
       </c>
       <c r="G81">
         <v>53226</v>
       </c>
       <c r="H81" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>93</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>91</v>
       </c>
       <c r="B82" t="s">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="C82">
         <v>13612</v>
       </c>
       <c r="D82" t="s">
-        <v>196</v>
+        <v>299</v>
       </c>
       <c r="E82" t="s">
-        <v>295</v>
+        <v>396</v>
       </c>
       <c r="F82" t="s">
-        <v>335</v>
+        <v>434</v>
       </c>
       <c r="G82">
         <v>40222</v>
       </c>
       <c r="H82" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>94</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>92</v>
       </c>
       <c r="B83" t="s">
-        <v>91</v>
+        <v>196</v>
       </c>
       <c r="C83">
         <v>10133</v>
       </c>
       <c r="D83" t="s">
-        <v>197</v>
+        <v>300</v>
       </c>
       <c r="E83" t="s">
-        <v>296</v>
+        <v>397</v>
       </c>
       <c r="F83" t="s">
-        <v>320</v>
+        <v>419</v>
       </c>
       <c r="G83">
         <v>94596</v>
       </c>
       <c r="H83" t="s">
-        <v>355</v>
+        <v>454</v>
       </c>
       <c r="I83" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>95</v>
+        <v>454</v>
+      </c>
+      <c r="K83" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>93</v>
       </c>
       <c r="B84" t="s">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="C84">
         <v>12611</v>
       </c>
       <c r="D84" t="s">
-        <v>198</v>
+        <v>301</v>
       </c>
       <c r="E84" t="s">
-        <v>297</v>
+        <v>398</v>
       </c>
       <c r="F84" t="s">
-        <v>354</v>
+        <v>453</v>
       </c>
       <c r="G84">
         <v>68118</v>
       </c>
       <c r="H84" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>96</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>94</v>
       </c>
       <c r="B85" t="s">
-        <v>93</v>
+        <v>198</v>
       </c>
       <c r="C85">
         <v>13112</v>
       </c>
       <c r="D85" t="s">
-        <v>199</v>
+        <v>302</v>
       </c>
       <c r="E85" t="s">
-        <v>298</v>
+        <v>399</v>
       </c>
       <c r="F85" t="s">
-        <v>341</v>
+        <v>440</v>
       </c>
       <c r="G85">
         <v>38138</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>97</v>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>95</v>
       </c>
       <c r="B86" t="s">
-        <v>94</v>
+        <v>199</v>
       </c>
       <c r="C86">
         <v>13514</v>
       </c>
       <c r="D86" t="s">
-        <v>200</v>
+        <v>303</v>
       </c>
       <c r="E86" t="s">
-        <v>299</v>
+        <v>400</v>
       </c>
       <c r="F86" t="s">
-        <v>324</v>
+        <v>423</v>
       </c>
       <c r="G86">
         <v>44145</v>
       </c>
       <c r="H86" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>98</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>96</v>
       </c>
       <c r="B87" t="s">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="C87">
         <v>11115</v>
       </c>
       <c r="D87" t="s">
-        <v>201</v>
+        <v>304</v>
       </c>
       <c r="E87" t="s">
-        <v>300</v>
+        <v>401</v>
       </c>
       <c r="F87" t="s">
-        <v>345</v>
+        <v>444</v>
       </c>
       <c r="G87">
         <v>85226</v>
       </c>
       <c r="H87" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>99</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>97</v>
       </c>
       <c r="B88" t="s">
-        <v>96</v>
+        <v>201</v>
       </c>
       <c r="C88">
         <v>15513</v>
       </c>
       <c r="D88" t="s">
-        <v>202</v>
+        <v>305</v>
       </c>
       <c r="E88" t="s">
-        <v>301</v>
+        <v>402</v>
       </c>
       <c r="F88" t="s">
-        <v>328</v>
+        <v>427</v>
       </c>
       <c r="G88">
         <v>27612</v>
       </c>
       <c r="H88" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>102</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>98</v>
       </c>
       <c r="B89" t="s">
-        <v>97</v>
+        <v>202</v>
       </c>
       <c r="C89">
         <v>11921</v>
       </c>
       <c r="D89" t="s">
-        <v>203</v>
+        <v>306</v>
       </c>
       <c r="E89" t="s">
-        <v>302</v>
+        <v>403</v>
       </c>
       <c r="F89" t="s">
-        <v>334</v>
+        <v>433</v>
       </c>
       <c r="G89">
         <v>77546</v>
       </c>
       <c r="H89" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>103</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>99</v>
       </c>
       <c r="B90" t="s">
-        <v>98</v>
+        <v>203</v>
       </c>
       <c r="C90">
         <v>15722</v>
       </c>
       <c r="D90" t="s">
-        <v>204</v>
+        <v>307</v>
       </c>
       <c r="E90" t="s">
-        <v>303</v>
+        <v>404</v>
       </c>
       <c r="F90" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="G90">
         <v>33543</v>
       </c>
       <c r="H90" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>104</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>100</v>
       </c>
       <c r="B91" t="s">
-        <v>99</v>
+        <v>204</v>
       </c>
       <c r="C91">
         <v>14517</v>
       </c>
       <c r="D91" t="s">
-        <v>205</v>
+        <v>308</v>
       </c>
       <c r="E91" t="s">
-        <v>304</v>
+        <v>405</v>
       </c>
       <c r="F91" t="s">
-        <v>338</v>
+        <v>437</v>
       </c>
       <c r="G91">
         <v>10010</v>
       </c>
       <c r="H91" t="s">
-        <v>355</v>
+        <v>454</v>
       </c>
       <c r="I91" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>105</v>
+        <v>454</v>
+      </c>
+      <c r="K91" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>101</v>
       </c>
       <c r="B92" t="s">
-        <v>100</v>
+        <v>205</v>
       </c>
       <c r="C92">
         <v>13515</v>
       </c>
       <c r="D92" t="s">
-        <v>206</v>
+        <v>309</v>
       </c>
       <c r="E92" t="s">
-        <v>305</v>
+        <v>406</v>
       </c>
       <c r="F92" t="s">
-        <v>324</v>
+        <v>423</v>
       </c>
       <c r="G92">
         <v>45440</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>107</v>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>102</v>
       </c>
       <c r="B93" t="s">
-        <v>101</v>
+        <v>206</v>
       </c>
       <c r="C93">
         <v>11922</v>
       </c>
       <c r="D93" t="s">
-        <v>207</v>
+        <v>310</v>
       </c>
       <c r="E93" t="s">
-        <v>306</v>
+        <v>407</v>
       </c>
       <c r="F93" t="s">
-        <v>334</v>
+        <v>433</v>
       </c>
       <c r="G93">
         <v>77433</v>
       </c>
       <c r="H93" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>108</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>103</v>
       </c>
       <c r="B94" t="s">
-        <v>102</v>
+        <v>207</v>
       </c>
       <c r="C94">
         <v>11313</v>
       </c>
       <c r="D94" t="s">
-        <v>208</v>
+        <v>311</v>
       </c>
       <c r="E94" t="s">
-        <v>307</v>
+        <v>408</v>
       </c>
       <c r="F94" t="s">
-        <v>332</v>
+        <v>431</v>
       </c>
       <c r="G94">
         <v>80108</v>
       </c>
       <c r="H94" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>109</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>104</v>
       </c>
       <c r="B95" t="s">
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="C95">
         <v>15724</v>
       </c>
       <c r="D95" t="s">
-        <v>209</v>
+        <v>312</v>
       </c>
       <c r="E95" t="s">
-        <v>308</v>
+        <v>409</v>
       </c>
       <c r="F95" t="s">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="G95">
         <v>33323</v>
       </c>
       <c r="H95" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>110</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>105</v>
       </c>
       <c r="B96" t="s">
-        <v>104</v>
+        <v>209</v>
       </c>
       <c r="C96">
         <v>10139</v>
       </c>
       <c r="D96" t="s">
-        <v>210</v>
+        <v>313</v>
       </c>
       <c r="E96" t="s">
-        <v>309</v>
+        <v>410</v>
       </c>
       <c r="F96" t="s">
-        <v>320</v>
+        <v>419</v>
       </c>
       <c r="G96">
         <v>92230</v>
       </c>
       <c r="H96" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>111</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>106</v>
       </c>
       <c r="B97" t="s">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="C97">
         <v>12113</v>
       </c>
       <c r="D97" t="s">
-        <v>211</v>
+        <v>314</v>
       </c>
       <c r="E97" t="s">
-        <v>310</v>
+        <v>411</v>
       </c>
       <c r="F97" t="s">
-        <v>326</v>
+        <v>425</v>
       </c>
       <c r="G97">
         <v>55305</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>112</v>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>107</v>
       </c>
       <c r="B98" t="s">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="C98">
         <v>10140</v>
       </c>
       <c r="D98" t="s">
-        <v>212</v>
+        <v>315</v>
       </c>
       <c r="E98" t="s">
-        <v>311</v>
+        <v>412</v>
       </c>
       <c r="F98" t="s">
-        <v>320</v>
+        <v>419</v>
       </c>
       <c r="G98">
         <v>91210</v>
       </c>
       <c r="H98" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>113</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>108</v>
       </c>
       <c r="B99" t="s">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="C99">
         <v>11314</v>
       </c>
       <c r="D99" t="s">
-        <v>213</v>
+        <v>316</v>
       </c>
       <c r="E99" t="s">
-        <v>312</v>
+        <v>413</v>
       </c>
       <c r="F99" t="s">
-        <v>332</v>
+        <v>431</v>
       </c>
       <c r="G99">
         <v>80920</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>114</v>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>109</v>
       </c>
       <c r="B100" t="s">
-        <v>108</v>
+        <v>213</v>
       </c>
       <c r="C100">
         <v>10515</v>
       </c>
       <c r="D100" t="s">
-        <v>214</v>
+        <v>317</v>
       </c>
       <c r="E100" t="s">
-        <v>231</v>
+        <v>332</v>
       </c>
       <c r="F100" t="s">
-        <v>327</v>
+        <v>426</v>
       </c>
       <c r="G100">
         <v>89106</v>
       </c>
       <c r="H100" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>115</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>110</v>
       </c>
       <c r="B101" t="s">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="C101">
         <v>11923</v>
       </c>
       <c r="D101" t="s">
-        <v>215</v>
+        <v>318</v>
       </c>
       <c r="E101" t="s">
-        <v>313</v>
+        <v>414</v>
       </c>
       <c r="F101" t="s">
-        <v>334</v>
+        <v>433</v>
       </c>
       <c r="G101">
         <v>78666</v>
       </c>
       <c r="H101" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>116</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>111</v>
       </c>
       <c r="B102" t="s">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="C102">
         <v>11812</v>
       </c>
       <c r="D102" t="s">
-        <v>216</v>
+        <v>319</v>
       </c>
       <c r="E102" t="s">
-        <v>314</v>
+        <v>415</v>
       </c>
       <c r="F102" t="s">
-        <v>352</v>
+        <v>451</v>
       </c>
       <c r="G102">
         <v>74037</v>
       </c>
       <c r="H102" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>117</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>112</v>
       </c>
       <c r="B103" t="s">
-        <v>111</v>
+        <v>216</v>
       </c>
       <c r="C103">
-        <v>10141</v>
+        <v>11116</v>
       </c>
       <c r="D103" t="s">
+        <v>320</v>
+      </c>
+      <c r="E103" t="s">
+        <v>416</v>
+      </c>
+      <c r="F103" t="s">
+        <v>444</v>
+      </c>
+      <c r="G103">
+        <v>85308</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" t="s">
         <v>217</v>
       </c>
-      <c r="E103" t="s">
-        <v>315</v>
-      </c>
-      <c r="F103" t="s">
-        <v>320</v>
-      </c>
-      <c r="G103">
-        <v>92122</v>
-      </c>
-      <c r="I103" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>120</v>
-      </c>
-      <c r="B104" t="s">
-        <v>112</v>
-      </c>
       <c r="C104">
-        <v>11116</v>
+        <v>10142</v>
       </c>
       <c r="D104" t="s">
+        <v>321</v>
+      </c>
+      <c r="E104" t="s">
+        <v>417</v>
+      </c>
+      <c r="F104" t="s">
+        <v>419</v>
+      </c>
+      <c r="G104">
+        <v>90230</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>114</v>
+      </c>
+      <c r="B105" t="s">
         <v>218</v>
       </c>
-      <c r="E104" t="s">
-        <v>316</v>
-      </c>
-      <c r="F104" t="s">
-        <v>345</v>
-      </c>
-      <c r="G104">
-        <v>85308</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>121</v>
-      </c>
-      <c r="B105" t="s">
-        <v>113</v>
-      </c>
       <c r="C105">
-        <v>10142</v>
+        <v>12314</v>
       </c>
       <c r="D105" t="s">
-        <v>219</v>
+        <v>322</v>
       </c>
       <c r="E105" t="s">
-        <v>317</v>
+        <v>418</v>
       </c>
       <c r="F105" t="s">
-        <v>320</v>
+        <v>424</v>
       </c>
       <c r="G105">
-        <v>90230</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>122</v>
-      </c>
-      <c r="B106" t="s">
-        <v>114</v>
-      </c>
-      <c r="C106">
-        <v>11925</v>
-      </c>
-      <c r="D106" t="s">
-        <v>220</v>
-      </c>
-      <c r="E106" t="s">
-        <v>318</v>
-      </c>
-      <c r="F106" t="s">
-        <v>334</v>
-      </c>
-      <c r="G106">
-        <v>75225</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>123</v>
-      </c>
-      <c r="B107" t="s">
-        <v>115</v>
-      </c>
-      <c r="C107">
-        <v>12314</v>
-      </c>
-      <c r="D107" t="s">
-        <v>221</v>
-      </c>
-      <c r="E107" t="s">
-        <v>319</v>
-      </c>
-      <c r="F107" t="s">
-        <v>325</v>
-      </c>
-      <c r="G107">
         <v>63131</v>
       </c>
     </row>
